--- a/VerveStacks_PRT/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_PRT/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_PRT\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A8CF2-4223-4757-95EA-E7D013A93058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2D48FF-4572-48C1-B658-0B947F67F4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_PRT/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_PRT/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_PRT\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2D48FF-4572-48C1-B658-0B947F67F4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A41082-BC29-4FB9-AA6C-687C3C15C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
